--- a/classfiers/chain/welm/smote/chain_welm_rbf_smote_results.xlsx
+++ b/classfiers/chain/welm/smote/chain_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4945533769063181</v>
+        <v>0.5175</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.494825687376576</v>
+        <v>0.5312257515456433</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.48</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4919103387961519</v>
+        <v>0.5501802884615385</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.477124183006536</v>
+        <v>0.525</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.462794901065449</v>
+        <v>0.5603508771929824</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4989106753812636</v>
+        <v>0.5162907268170426</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4844693373837099</v>
+        <v>0.5244479098546205</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5109170305676856</v>
+        <v>0.4611528822055138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4594112484737485</v>
+        <v>0.5644716885743175</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5000047568760644</v>
+        <v>0.4999887218045113</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.478682302619127</v>
+        <v>0.5461353031258204</v>
       </c>
     </row>
   </sheetData>
